--- a/FantaSoccer/xG/Ligue1/Lyon_matches_2020.xlsx
+++ b/FantaSoccer/xG/Ligue1/Lyon_matches_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>home</t>
   </si>
@@ -145,6 +145,15 @@
     <t>3.9821</t>
   </si>
   <si>
+    <t>1.82314</t>
+  </si>
+  <si>
+    <t>1.14894</t>
+  </si>
+  <si>
+    <t>1.6386</t>
+  </si>
+  <si>
     <t>0.215658</t>
   </si>
   <si>
@@ -194,6 +203,15 @@
   </si>
   <si>
     <t>1.10394</t>
+  </si>
+  <si>
+    <t>0.947234</t>
+  </si>
+  <si>
+    <t>1.11618</t>
+  </si>
+  <si>
+    <t>1.4255</t>
   </si>
   <si>
     <t>4</t>
@@ -606,13 +624,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -629,13 +647,13 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -652,13 +670,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -675,13 +693,13 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -698,13 +716,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -721,13 +739,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -744,13 +762,13 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -767,13 +785,13 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -790,13 +808,13 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -813,13 +831,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -836,13 +854,13 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -859,13 +877,13 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -882,13 +900,13 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -905,13 +923,13 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -928,13 +946,13 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -951,13 +969,13 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -974,13 +992,13 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -993,6 +1011,18 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -1004,6 +1034,18 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -1014,6 +1056,18 @@
       </c>
       <c r="C21" t="s">
         <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7">
